--- a/Client work sample.xlsx
+++ b/Client work sample.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VICKY\Desktop\EXCEL DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80102061-75A4-42D4-9A51-69A303AE9282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA52A5FB-F1F4-492C-8558-0385F1B0D8B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="2" xr2:uid="{B35C448E-FC25-4EEB-9EAF-48D5F97D60C5}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{B35C448E-FC25-4EEB-9EAF-48D5F97D60C5}"/>
   </bookViews>
   <sheets>
-    <sheet name="PIVOTS" sheetId="5" r:id="rId1"/>
+    <sheet name="PIVOTS" sheetId="5" state="hidden" r:id="rId1"/>
     <sheet name=" Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Task" sheetId="2" r:id="rId3"/>
+    <sheet name="Tasks" sheetId="6" r:id="rId3"/>
+    <sheet name="Done Tasks" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">' Data'!$C$1:$C$16</definedName>
@@ -23,12 +24,12 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="78">
   <si>
     <t>Employee ID</t>
   </si>
@@ -568,10 +569,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -579,7 +579,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -588,8 +587,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
@@ -2655,7 +2652,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43B0D157-96AC-406C-A267-28A363F86790}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DEPARTMENT">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43B0D157-96AC-406C-A267-28A363F86790}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DEPARTMENT">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2761,365 +2758,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3152AAC9-34A3-4724-9ED5-FFF2E7D0684D}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DEPARTMENT">
-  <location ref="B47:C53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="16">
-        <item x="2"/>
-        <item x="9"/>
-        <item x="14"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="13"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="% OF TOTAL SALARY" fld="3" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{971C11BD-2A51-4734-9BA5-E41DD7FF8035}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Department" colHeaderCaption="Region of Birth">
-  <location ref="B19:F26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="5"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Region of Birth" fld="5" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight17" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3949243B-B6A7-4975-840D-15A19E03A048}" name="PivotTable13" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DEPARTMENT">
-  <location ref="B63:C67" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="16">
-        <item x="2"/>
-        <item x="9"/>
-        <item x="14"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="13"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Salary" fld="3" subtotal="average" baseField="5" baseItem="0" numFmtId="42"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F62F842F-20FE-47AE-8BA9-7D6B53FB0B91}" name="PivotTable12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DEPARTMENT">
-  <location ref="B56:C61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="16">
-        <item x="2"/>
-        <item x="9"/>
-        <item x="14"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="13"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="9">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="% of total Hours worked per Week" fld="4" showDataAs="percentOfTotal" baseField="2" baseItem="2" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD146B42-5F59-4318-856E-5AEC119F93AA}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DEPARTMENT">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DD146B42-5F59-4318-856E-5AEC119F93AA}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DEPARTMENT">
   <location ref="B82:C87" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -3224,8 +2863,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE16447E-EDD3-4C50-A8A7-60CE4D579EAA}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DEPARTMENT">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE16447E-EDD3-4C50-A8A7-60CE4D579EAA}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DEPARTMENT">
   <location ref="B75:C80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -3308,6 +2947,364 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Salary" fld="3" baseField="2" baseItem="0" numFmtId="42"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3152AAC9-34A3-4724-9ED5-FFF2E7D0684D}" name="PivotTable10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DEPARTMENT">
+  <location ref="B47:C53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="% OF TOTAL SALARY" fld="3" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{971C11BD-2A51-4734-9BA5-E41DD7FF8035}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Department" colHeaderCaption="Region of Birth">
+  <location ref="B19:F26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Region of Birth" fld="5" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight17" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3949243B-B6A7-4975-840D-15A19E03A048}" name="PivotTable13" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DEPARTMENT">
+  <location ref="B63:C67" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Salary" fld="3" subtotal="average" baseField="5" baseItem="0" numFmtId="42"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F62F842F-20FE-47AE-8BA9-7D6B53FB0B91}" name="PivotTable12" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="DEPARTMENT">
+  <location ref="B56:C61" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="16">
+        <item x="2"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="% of total Hours worked per Week" fld="4" showDataAs="percentOfTotal" baseField="2" baseItem="2" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3675,54 +3672,54 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="35" t="s">
         <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="37">
         <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="37">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="37">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="37">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="37">
         <v>109</v>
       </c>
     </row>
@@ -3736,337 +3733,338 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA91532-4F28-4D04-91A7-51B86D6732FD}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="9"/>
-    <col min="5" max="5" width="17.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="17.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>55000</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>40</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>62000</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>38</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>48000</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>42</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>75000</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>36</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>68000</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>40</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>52000</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>40</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>59000</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>35</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>74000</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>39</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>67000</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>37</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>49000</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>41</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>53000</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>40</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>60000</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>36</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>76000</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>40</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>69000</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>39</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+    <row r="16" spans="1:6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="32">
         <v>50000</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="33">
         <v>38</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4079,10 +4077,103 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA21BB4E-EF76-4E37-A223-E91ADAE5CDDA}">
+  <dimension ref="A2:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="128.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DD1489-38DD-40E2-A358-2DDC889EF9BE}">
   <dimension ref="A1:XFD87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
@@ -4099,41 +4190,41 @@
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="17">
+      <c r="B2" s="13">
         <f ca="1">AVERAGEIF(' Data'!C2:D16,"finance",' Data'!D2:D16)</f>
         <v>68000</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="14">
         <f ca="1">AVERAGEIF(' Data'!C2:D16,' Data'!$C$4,' Data'!D2:D16)</f>
         <v>49000</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="15">
         <f ca="1">AVERAGEIF(' Data'!C2:D16,' Data'!$C$5,' Data'!D2:D16)</f>
         <v>75000</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="16">
         <f ca="1">AVERAGEIF(' Data'!C2:D16,' Data'!$C$3,' Data'!D2:D16)</f>
         <v>60333.333333333336</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="17">
         <f ca="1">AVERAGEIF(' Data'!C2:D16,' Data'!$C$12,' Data'!D2:D16)</f>
         <v>53333.333333333336</v>
       </c>
@@ -4151,29 +4242,29 @@
       <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="18">
         <f ca="1">MAX(B2:F2)</f>
         <v>75000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="18">
         <f ca="1">MIN(B2:F2)</f>
         <v>49000</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="22"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4182,28 +4273,28 @@
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4214,55 +4305,55 @@
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="23">
+      <c r="B13" s="19">
         <f ca="1">AVERAGEIF(' Data'!$C$1:$E$16,B12,' Data'!$E$1:$E$16)</f>
         <v>38.666666666666664</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="19">
         <f ca="1">AVERAGEIF(' Data'!$C$1:$E$16,C12,' Data'!$E$1:$E$16)</f>
         <v>40.333333333333336</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="19">
         <f ca="1">AVERAGEIF(' Data'!$C$1:$E$16,D12,' Data'!$E$1:$E$16)</f>
         <v>38.333333333333336</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="19">
         <f ca="1">AVERAGEIF(' Data'!$C$1:$E$16,E12,' Data'!$E$1:$E$16)</f>
         <v>36.333333333333336</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="19">
         <f ca="1">AVERAGEIF(' Data'!$C$1:$E$16,F12,' Data'!$E$1:$E$16)</f>
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="C14" s="24">
+      <c r="C14" s="20">
         <f ca="1">MAX(B13:F13)</f>
         <v>40.333333333333336</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="C15" s="24"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -4271,7 +4362,7 @@
       <c r="B16" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="s">
@@ -4286,7 +4377,7 @@
       <c r="B17" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="20">
         <f ca="1">C13-E13</f>
         <v>4</v>
       </c>
@@ -4298,16 +4389,16 @@
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C20" t="s">
@@ -4325,109 +4416,109 @@
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="37">
         <v>0</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="37">
         <v>2</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="37">
         <v>0</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="37">
         <v>1</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="37">
         <v>0</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="37">
         <v>1</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="37">
         <v>2</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="37">
         <v>0</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="37">
         <v>1</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="37">
         <v>0</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="37">
         <v>2</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="37">
         <v>1</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="37">
         <v>0</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="37">
         <v>0</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="37">
         <v>2</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="37">
         <v>3</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="37">
         <v>4</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="37">
         <v>5</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="37">
         <v>3</v>
       </c>
     </row>
@@ -4444,45 +4535,45 @@
       <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="38" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="40"/>
     </row>
     <row r="33" spans="1:16384" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="41"/>
     </row>
     <row r="34" spans="1:16384" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="41"/>
     </row>
     <row r="35" spans="1:16384" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="41"/>
     </row>
     <row r="36" spans="1:16384" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="41"/>
     </row>
     <row r="37" spans="1:16384" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="41"/>
     </row>
     <row r="38" spans="1:16384" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="41"/>
     </row>
     <row r="39" spans="1:16384" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="41"/>
     </row>
     <row r="40" spans="1:16384" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="41"/>
     </row>
     <row r="41" spans="1:16384" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="41"/>
     </row>
     <row r="42" spans="1:16384" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="46"/>
+      <c r="A42" s="42"/>
     </row>
     <row r="43" spans="1:16384" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="39"/>
     </row>
     <row r="44" spans="1:16384" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -20884,114 +20975,114 @@
     </row>
     <row r="47" spans="1:16384" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="35" t="s">
         <v>72</v>
       </c>
       <c r="C47" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="39"/>
-      <c r="Z47" s="39"/>
-      <c r="AA47" s="39"/>
-      <c r="AB47" s="39"/>
-      <c r="AC47" s="39"/>
-      <c r="AD47" s="39"/>
-      <c r="AE47" s="39"/>
-      <c r="AF47" s="39"/>
-      <c r="AG47" s="39"/>
-      <c r="AH47" s="39"/>
-      <c r="AI47" s="39"/>
-      <c r="AJ47" s="39"/>
-      <c r="AK47" s="39"/>
-      <c r="AL47" s="39"/>
-      <c r="AM47" s="39"/>
-      <c r="AN47" s="39"/>
-      <c r="AO47" s="39"/>
-      <c r="AP47" s="39"/>
-      <c r="AQ47" s="39"/>
-      <c r="AR47" s="39"/>
-      <c r="AS47" s="39"/>
-      <c r="AT47" s="39"/>
-      <c r="AU47" s="39"/>
-      <c r="AV47" s="39"/>
-      <c r="AW47" s="39"/>
-      <c r="AX47" s="39"/>
-      <c r="AY47" s="39"/>
-      <c r="AZ47" s="39"/>
-      <c r="BA47" s="39"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="35"/>
+      <c r="AE47" s="35"/>
+      <c r="AF47" s="35"/>
+      <c r="AG47" s="35"/>
+      <c r="AH47" s="35"/>
+      <c r="AI47" s="35"/>
+      <c r="AJ47" s="35"/>
+      <c r="AK47" s="35"/>
+      <c r="AL47" s="35"/>
+      <c r="AM47" s="35"/>
+      <c r="AN47" s="35"/>
+      <c r="AO47" s="35"/>
+      <c r="AP47" s="35"/>
+      <c r="AQ47" s="35"/>
+      <c r="AR47" s="35"/>
+      <c r="AS47" s="35"/>
+      <c r="AT47" s="35"/>
+      <c r="AU47" s="35"/>
+      <c r="AV47" s="35"/>
+      <c r="AW47" s="35"/>
+      <c r="AX47" s="35"/>
+      <c r="AY47" s="35"/>
+      <c r="AZ47" s="35"/>
+      <c r="BA47" s="35"/>
     </row>
     <row r="48" spans="1:16384" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="47">
+      <c r="C48" s="43">
         <v>0.22246455834242093</v>
       </c>
     </row>
     <row r="49" spans="1:67" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="47">
+      <c r="C49" s="43">
         <v>0.16030534351145037</v>
       </c>
     </row>
     <row r="50" spans="1:67" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="47">
+      <c r="C50" s="43">
         <v>0.24536532170119957</v>
       </c>
     </row>
     <row r="51" spans="1:67" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="47">
+      <c r="C51" s="43">
         <v>0.19738276990185388</v>
       </c>
     </row>
     <row r="52" spans="1:67" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="47">
+      <c r="C52" s="43">
         <v>0.17448200654307525</v>
       </c>
     </row>
     <row r="53" spans="1:67" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="47">
+      <c r="C53" s="43">
         <v>1</v>
       </c>
     </row>
@@ -21002,454 +21093,454 @@
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="39"/>
-      <c r="Z55" s="39"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39"/>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="39"/>
-      <c r="AH55" s="39"/>
-      <c r="AI55" s="39"/>
-      <c r="AJ55" s="39"/>
-      <c r="AK55" s="39"/>
-      <c r="AL55" s="39"/>
-      <c r="AM55" s="39"/>
-      <c r="AN55" s="39"/>
-      <c r="AO55" s="39"/>
-      <c r="AP55" s="39"/>
-      <c r="AQ55" s="39"/>
-      <c r="AR55" s="39"/>
-      <c r="AS55" s="39"/>
-      <c r="AT55" s="39"/>
-      <c r="AU55" s="39"/>
-      <c r="AV55" s="39"/>
-      <c r="AW55" s="39"/>
-      <c r="AX55" s="39"/>
-      <c r="AY55" s="39"/>
-      <c r="AZ55" s="39"/>
-      <c r="BA55" s="39"/>
-      <c r="BB55" s="39"/>
-      <c r="BC55" s="39"/>
-      <c r="BD55" s="39"/>
-      <c r="BE55" s="39"/>
-      <c r="BF55" s="39"/>
-      <c r="BG55" s="39"/>
-      <c r="BH55" s="39"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+      <c r="AC55" s="35"/>
+      <c r="AD55" s="35"/>
+      <c r="AE55" s="35"/>
+      <c r="AF55" s="35"/>
+      <c r="AG55" s="35"/>
+      <c r="AH55" s="35"/>
+      <c r="AI55" s="35"/>
+      <c r="AJ55" s="35"/>
+      <c r="AK55" s="35"/>
+      <c r="AL55" s="35"/>
+      <c r="AM55" s="35"/>
+      <c r="AN55" s="35"/>
+      <c r="AO55" s="35"/>
+      <c r="AP55" s="35"/>
+      <c r="AQ55" s="35"/>
+      <c r="AR55" s="35"/>
+      <c r="AS55" s="35"/>
+      <c r="AT55" s="35"/>
+      <c r="AU55" s="35"/>
+      <c r="AV55" s="35"/>
+      <c r="AW55" s="35"/>
+      <c r="AX55" s="35"/>
+      <c r="AY55" s="35"/>
+      <c r="AZ55" s="35"/>
+      <c r="BA55" s="35"/>
+      <c r="BB55" s="35"/>
+      <c r="BC55" s="35"/>
+      <c r="BD55" s="35"/>
+      <c r="BE55" s="35"/>
+      <c r="BF55" s="35"/>
+      <c r="BG55" s="35"/>
+      <c r="BH55" s="35"/>
     </row>
     <row r="56" spans="1:67" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="35" t="s">
         <v>72</v>
       </c>
       <c r="C56" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="39"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="39"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="39"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="39"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="39"/>
-      <c r="Z56" s="39"/>
-      <c r="AA56" s="39"/>
-      <c r="AB56" s="39"/>
-      <c r="AC56" s="39"/>
-      <c r="AD56" s="39"/>
-      <c r="AE56" s="39"/>
-      <c r="AF56" s="39"/>
-      <c r="AG56" s="39"/>
-      <c r="AH56" s="39"/>
-      <c r="AI56" s="39"/>
-      <c r="AJ56" s="39"/>
-      <c r="AK56" s="39"/>
-      <c r="AL56" s="39"/>
-      <c r="AM56" s="39"/>
-      <c r="AN56" s="39"/>
-      <c r="AO56" s="39"/>
-      <c r="AP56" s="39"/>
-      <c r="AQ56" s="39"/>
-      <c r="AR56" s="39"/>
-      <c r="AS56" s="39"/>
-      <c r="AT56" s="39"/>
-      <c r="AU56" s="39"/>
-      <c r="AV56" s="39"/>
-      <c r="AW56" s="39"/>
-      <c r="AX56" s="39"/>
-      <c r="AY56" s="39"/>
-      <c r="AZ56" s="39"/>
-      <c r="BA56" s="39"/>
-      <c r="BB56" s="39"/>
-      <c r="BC56" s="39"/>
-      <c r="BD56" s="39"/>
-      <c r="BE56" s="39"/>
-      <c r="BF56" s="39"/>
-      <c r="BG56" s="39"/>
-      <c r="BH56" s="39"/>
-      <c r="BI56" s="39"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="35"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="35"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="35"/>
+      <c r="Y56" s="35"/>
+      <c r="Z56" s="35"/>
+      <c r="AA56" s="35"/>
+      <c r="AB56" s="35"/>
+      <c r="AC56" s="35"/>
+      <c r="AD56" s="35"/>
+      <c r="AE56" s="35"/>
+      <c r="AF56" s="35"/>
+      <c r="AG56" s="35"/>
+      <c r="AH56" s="35"/>
+      <c r="AI56" s="35"/>
+      <c r="AJ56" s="35"/>
+      <c r="AK56" s="35"/>
+      <c r="AL56" s="35"/>
+      <c r="AM56" s="35"/>
+      <c r="AN56" s="35"/>
+      <c r="AO56" s="35"/>
+      <c r="AP56" s="35"/>
+      <c r="AQ56" s="35"/>
+      <c r="AR56" s="35"/>
+      <c r="AS56" s="35"/>
+      <c r="AT56" s="35"/>
+      <c r="AU56" s="35"/>
+      <c r="AV56" s="35"/>
+      <c r="AW56" s="35"/>
+      <c r="AX56" s="35"/>
+      <c r="AY56" s="35"/>
+      <c r="AZ56" s="35"/>
+      <c r="BA56" s="35"/>
+      <c r="BB56" s="35"/>
+      <c r="BC56" s="35"/>
+      <c r="BD56" s="35"/>
+      <c r="BE56" s="35"/>
+      <c r="BF56" s="35"/>
+      <c r="BG56" s="35"/>
+      <c r="BH56" s="35"/>
+      <c r="BI56" s="35"/>
     </row>
     <row r="57" spans="1:67" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="47">
+      <c r="C57" s="43">
         <v>0.19965576592082615</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="39"/>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
-      <c r="V57" s="39"/>
-      <c r="W57" s="39"/>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="39"/>
-      <c r="Z57" s="39"/>
-      <c r="AA57" s="39"/>
-      <c r="AB57" s="39"/>
-      <c r="AC57" s="39"/>
-      <c r="AD57" s="39"/>
-      <c r="AE57" s="39"/>
-      <c r="AF57" s="39"/>
-      <c r="AG57" s="39"/>
-      <c r="AH57" s="39"/>
-      <c r="AI57" s="39"/>
-      <c r="AJ57" s="39"/>
-      <c r="AK57" s="39"/>
-      <c r="AL57" s="39"/>
-      <c r="AM57" s="39"/>
-      <c r="AN57" s="39"/>
-      <c r="AO57" s="39"/>
-      <c r="AP57" s="39"/>
-      <c r="AQ57" s="39"/>
-      <c r="AR57" s="39"/>
-      <c r="AS57" s="39"/>
-      <c r="AT57" s="39"/>
-      <c r="AU57" s="39"/>
-      <c r="AV57" s="39"/>
-      <c r="AW57" s="39"/>
-      <c r="AX57" s="39"/>
-      <c r="AY57" s="39"/>
-      <c r="AZ57" s="39"/>
-      <c r="BA57" s="39"/>
-      <c r="BB57" s="39"/>
-      <c r="BC57" s="39"/>
-      <c r="BD57" s="39"/>
-      <c r="BE57" s="39"/>
-      <c r="BF57" s="39"/>
-      <c r="BG57" s="39"/>
-      <c r="BH57" s="39"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35"/>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="35"/>
+      <c r="AA57" s="35"/>
+      <c r="AB57" s="35"/>
+      <c r="AC57" s="35"/>
+      <c r="AD57" s="35"/>
+      <c r="AE57" s="35"/>
+      <c r="AF57" s="35"/>
+      <c r="AG57" s="35"/>
+      <c r="AH57" s="35"/>
+      <c r="AI57" s="35"/>
+      <c r="AJ57" s="35"/>
+      <c r="AK57" s="35"/>
+      <c r="AL57" s="35"/>
+      <c r="AM57" s="35"/>
+      <c r="AN57" s="35"/>
+      <c r="AO57" s="35"/>
+      <c r="AP57" s="35"/>
+      <c r="AQ57" s="35"/>
+      <c r="AR57" s="35"/>
+      <c r="AS57" s="35"/>
+      <c r="AT57" s="35"/>
+      <c r="AU57" s="35"/>
+      <c r="AV57" s="35"/>
+      <c r="AW57" s="35"/>
+      <c r="AX57" s="35"/>
+      <c r="AY57" s="35"/>
+      <c r="AZ57" s="35"/>
+      <c r="BA57" s="35"/>
+      <c r="BB57" s="35"/>
+      <c r="BC57" s="35"/>
+      <c r="BD57" s="35"/>
+      <c r="BE57" s="35"/>
+      <c r="BF57" s="35"/>
+      <c r="BG57" s="35"/>
+      <c r="BH57" s="35"/>
     </row>
     <row r="58" spans="1:67" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="47">
+      <c r="C58" s="43">
         <v>0.20826161790017211</v>
       </c>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
-      <c r="Z58" s="39"/>
-      <c r="AA58" s="39"/>
-      <c r="AB58" s="39"/>
-      <c r="AC58" s="39"/>
-      <c r="AD58" s="39"/>
-      <c r="AE58" s="39"/>
-      <c r="AF58" s="39"/>
-      <c r="AG58" s="39"/>
-      <c r="AH58" s="39"/>
-      <c r="AI58" s="39"/>
-      <c r="AJ58" s="39"/>
-      <c r="AK58" s="39"/>
-      <c r="AL58" s="39"/>
-      <c r="AM58" s="39"/>
-      <c r="AN58" s="39"/>
-      <c r="AO58" s="39"/>
-      <c r="AP58" s="39"/>
-      <c r="AQ58" s="39"/>
-      <c r="AR58" s="39"/>
-      <c r="AS58" s="39"/>
-      <c r="AT58" s="39"/>
-      <c r="AU58" s="39"/>
-      <c r="AV58" s="39"/>
-      <c r="AW58" s="39"/>
-      <c r="AX58" s="39"/>
-      <c r="AY58" s="39"/>
-      <c r="AZ58" s="39"/>
-      <c r="BA58" s="39"/>
-      <c r="BB58" s="39"/>
-      <c r="BC58" s="39"/>
-      <c r="BD58" s="39"/>
-      <c r="BE58" s="39"/>
-      <c r="BF58" s="39"/>
-      <c r="BG58" s="39"/>
-      <c r="BH58" s="39"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="35"/>
+      <c r="Z58" s="35"/>
+      <c r="AA58" s="35"/>
+      <c r="AB58" s="35"/>
+      <c r="AC58" s="35"/>
+      <c r="AD58" s="35"/>
+      <c r="AE58" s="35"/>
+      <c r="AF58" s="35"/>
+      <c r="AG58" s="35"/>
+      <c r="AH58" s="35"/>
+      <c r="AI58" s="35"/>
+      <c r="AJ58" s="35"/>
+      <c r="AK58" s="35"/>
+      <c r="AL58" s="35"/>
+      <c r="AM58" s="35"/>
+      <c r="AN58" s="35"/>
+      <c r="AO58" s="35"/>
+      <c r="AP58" s="35"/>
+      <c r="AQ58" s="35"/>
+      <c r="AR58" s="35"/>
+      <c r="AS58" s="35"/>
+      <c r="AT58" s="35"/>
+      <c r="AU58" s="35"/>
+      <c r="AV58" s="35"/>
+      <c r="AW58" s="35"/>
+      <c r="AX58" s="35"/>
+      <c r="AY58" s="35"/>
+      <c r="AZ58" s="35"/>
+      <c r="BA58" s="35"/>
+      <c r="BB58" s="35"/>
+      <c r="BC58" s="35"/>
+      <c r="BD58" s="35"/>
+      <c r="BE58" s="35"/>
+      <c r="BF58" s="35"/>
+      <c r="BG58" s="35"/>
+      <c r="BH58" s="35"/>
     </row>
     <row r="59" spans="1:67" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="47">
+      <c r="C59" s="43">
         <v>0.19793459552495696</v>
       </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="39"/>
-      <c r="AA59" s="39"/>
-      <c r="AB59" s="39"/>
-      <c r="AC59" s="39"/>
-      <c r="AD59" s="39"/>
-      <c r="AE59" s="39"/>
-      <c r="AF59" s="39"/>
-      <c r="AG59" s="39"/>
-      <c r="AH59" s="39"/>
-      <c r="AI59" s="39"/>
-      <c r="AJ59" s="39"/>
-      <c r="AK59" s="39"/>
-      <c r="AL59" s="39"/>
-      <c r="AM59" s="39"/>
-      <c r="AN59" s="39"/>
-      <c r="AO59" s="39"/>
-      <c r="AP59" s="39"/>
-      <c r="AQ59" s="39"/>
-      <c r="AR59" s="39"/>
-      <c r="AS59" s="39"/>
-      <c r="AT59" s="39"/>
-      <c r="AU59" s="39"/>
-      <c r="AV59" s="39"/>
-      <c r="AW59" s="39"/>
-      <c r="AX59" s="39"/>
-      <c r="AY59" s="39"/>
-      <c r="AZ59" s="39"/>
-      <c r="BA59" s="39"/>
-      <c r="BB59" s="39"/>
-      <c r="BC59" s="39"/>
-      <c r="BD59" s="39"/>
-      <c r="BE59" s="39"/>
-      <c r="BF59" s="39"/>
-      <c r="BG59" s="39"/>
-      <c r="BH59" s="39"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
+      <c r="AB59" s="35"/>
+      <c r="AC59" s="35"/>
+      <c r="AD59" s="35"/>
+      <c r="AE59" s="35"/>
+      <c r="AF59" s="35"/>
+      <c r="AG59" s="35"/>
+      <c r="AH59" s="35"/>
+      <c r="AI59" s="35"/>
+      <c r="AJ59" s="35"/>
+      <c r="AK59" s="35"/>
+      <c r="AL59" s="35"/>
+      <c r="AM59" s="35"/>
+      <c r="AN59" s="35"/>
+      <c r="AO59" s="35"/>
+      <c r="AP59" s="35"/>
+      <c r="AQ59" s="35"/>
+      <c r="AR59" s="35"/>
+      <c r="AS59" s="35"/>
+      <c r="AT59" s="35"/>
+      <c r="AU59" s="35"/>
+      <c r="AV59" s="35"/>
+      <c r="AW59" s="35"/>
+      <c r="AX59" s="35"/>
+      <c r="AY59" s="35"/>
+      <c r="AZ59" s="35"/>
+      <c r="BA59" s="35"/>
+      <c r="BB59" s="35"/>
+      <c r="BC59" s="35"/>
+      <c r="BD59" s="35"/>
+      <c r="BE59" s="35"/>
+      <c r="BF59" s="35"/>
+      <c r="BG59" s="35"/>
+      <c r="BH59" s="35"/>
     </row>
     <row r="60" spans="1:67" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="47">
+      <c r="C60" s="43">
         <v>0.18760757314974183</v>
       </c>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="39"/>
-      <c r="AB60" s="39"/>
-      <c r="AC60" s="39"/>
-      <c r="AD60" s="39"/>
-      <c r="AE60" s="39"/>
-      <c r="AF60" s="39"/>
-      <c r="AG60" s="39"/>
-      <c r="AH60" s="39"/>
-      <c r="AI60" s="39"/>
-      <c r="AJ60" s="39"/>
-      <c r="AK60" s="39"/>
-      <c r="AL60" s="39"/>
-      <c r="AM60" s="39"/>
-      <c r="AN60" s="39"/>
-      <c r="AO60" s="39"/>
-      <c r="AP60" s="39"/>
-      <c r="AQ60" s="39"/>
-      <c r="AR60" s="39"/>
-      <c r="AS60" s="39"/>
-      <c r="AT60" s="39"/>
-      <c r="AU60" s="39"/>
-      <c r="AV60" s="39"/>
-      <c r="AW60" s="39"/>
-      <c r="AX60" s="39"/>
-      <c r="AY60" s="39"/>
-      <c r="AZ60" s="39"/>
-      <c r="BA60" s="39"/>
-      <c r="BB60" s="39"/>
-      <c r="BC60" s="39"/>
-      <c r="BD60" s="39"/>
-      <c r="BE60" s="39"/>
-      <c r="BF60" s="39"/>
-      <c r="BG60" s="39"/>
-      <c r="BH60" s="39"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="35"/>
+      <c r="AC60" s="35"/>
+      <c r="AD60" s="35"/>
+      <c r="AE60" s="35"/>
+      <c r="AF60" s="35"/>
+      <c r="AG60" s="35"/>
+      <c r="AH60" s="35"/>
+      <c r="AI60" s="35"/>
+      <c r="AJ60" s="35"/>
+      <c r="AK60" s="35"/>
+      <c r="AL60" s="35"/>
+      <c r="AM60" s="35"/>
+      <c r="AN60" s="35"/>
+      <c r="AO60" s="35"/>
+      <c r="AP60" s="35"/>
+      <c r="AQ60" s="35"/>
+      <c r="AR60" s="35"/>
+      <c r="AS60" s="35"/>
+      <c r="AT60" s="35"/>
+      <c r="AU60" s="35"/>
+      <c r="AV60" s="35"/>
+      <c r="AW60" s="35"/>
+      <c r="AX60" s="35"/>
+      <c r="AY60" s="35"/>
+      <c r="AZ60" s="35"/>
+      <c r="BA60" s="35"/>
+      <c r="BB60" s="35"/>
+      <c r="BC60" s="35"/>
+      <c r="BD60" s="35"/>
+      <c r="BE60" s="35"/>
+      <c r="BF60" s="35"/>
+      <c r="BG60" s="35"/>
+      <c r="BH60" s="35"/>
     </row>
     <row r="61" spans="1:67" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="47">
+      <c r="C61" s="43">
         <v>0.20654044750430292</v>
       </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
-      <c r="Z61" s="39"/>
-      <c r="AA61" s="39"/>
-      <c r="AB61" s="39"/>
-      <c r="AC61" s="39"/>
-      <c r="AD61" s="39"/>
-      <c r="AE61" s="39"/>
-      <c r="AF61" s="39"/>
-      <c r="AG61" s="39"/>
-      <c r="AH61" s="39"/>
-      <c r="AI61" s="39"/>
-      <c r="AJ61" s="39"/>
-      <c r="AK61" s="39"/>
-      <c r="AL61" s="39"/>
-      <c r="AM61" s="39"/>
-      <c r="AN61" s="39"/>
-      <c r="AO61" s="39"/>
-      <c r="AP61" s="39"/>
-      <c r="AQ61" s="39"/>
-      <c r="AR61" s="39"/>
-      <c r="AS61" s="39"/>
-      <c r="AT61" s="39"/>
-      <c r="AU61" s="39"/>
-      <c r="AV61" s="39"/>
-      <c r="AW61" s="39"/>
-      <c r="AX61" s="39"/>
-      <c r="AY61" s="39"/>
-      <c r="AZ61" s="39"/>
-      <c r="BA61" s="39"/>
-      <c r="BB61" s="39"/>
-      <c r="BC61" s="39"/>
-      <c r="BD61" s="39"/>
-      <c r="BE61" s="39"/>
-      <c r="BF61" s="39"/>
-      <c r="BG61" s="39"/>
-      <c r="BH61" s="39"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
+      <c r="AB61" s="35"/>
+      <c r="AC61" s="35"/>
+      <c r="AD61" s="35"/>
+      <c r="AE61" s="35"/>
+      <c r="AF61" s="35"/>
+      <c r="AG61" s="35"/>
+      <c r="AH61" s="35"/>
+      <c r="AI61" s="35"/>
+      <c r="AJ61" s="35"/>
+      <c r="AK61" s="35"/>
+      <c r="AL61" s="35"/>
+      <c r="AM61" s="35"/>
+      <c r="AN61" s="35"/>
+      <c r="AO61" s="35"/>
+      <c r="AP61" s="35"/>
+      <c r="AQ61" s="35"/>
+      <c r="AR61" s="35"/>
+      <c r="AS61" s="35"/>
+      <c r="AT61" s="35"/>
+      <c r="AU61" s="35"/>
+      <c r="AV61" s="35"/>
+      <c r="AW61" s="35"/>
+      <c r="AX61" s="35"/>
+      <c r="AY61" s="35"/>
+      <c r="AZ61" s="35"/>
+      <c r="BA61" s="35"/>
+      <c r="BB61" s="35"/>
+      <c r="BC61" s="35"/>
+      <c r="BD61" s="35"/>
+      <c r="BE61" s="35"/>
+      <c r="BF61" s="35"/>
+      <c r="BG61" s="35"/>
+      <c r="BH61" s="35"/>
     </row>
     <row r="62" spans="1:67" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -21458,110 +21549,110 @@
     </row>
     <row r="63" spans="1:67" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="39" t="s">
+      <c r="C63" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="39"/>
-      <c r="P63" s="39"/>
-      <c r="Q63" s="39"/>
-      <c r="R63" s="39"/>
-      <c r="S63" s="39"/>
-      <c r="T63" s="39"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="39"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="39"/>
-      <c r="Y63" s="39"/>
-      <c r="Z63" s="39"/>
-      <c r="AA63" s="39"/>
-      <c r="AB63" s="39"/>
-      <c r="AC63" s="39"/>
-      <c r="AD63" s="39"/>
-      <c r="AE63" s="39"/>
-      <c r="AF63" s="39"/>
-      <c r="AG63" s="39"/>
-      <c r="AH63" s="39"/>
-      <c r="AI63" s="39"/>
-      <c r="AJ63" s="39"/>
-      <c r="AK63" s="39"/>
-      <c r="AL63" s="39"/>
-      <c r="AM63" s="39"/>
-      <c r="AN63" s="39"/>
-      <c r="AO63" s="39"/>
-      <c r="AP63" s="39"/>
-      <c r="AQ63" s="39"/>
-      <c r="AR63" s="39"/>
-      <c r="AS63" s="39"/>
-      <c r="AT63" s="39"/>
-      <c r="AU63" s="39"/>
-      <c r="AV63" s="39"/>
-      <c r="AW63" s="39"/>
-      <c r="AX63" s="39"/>
-      <c r="AY63" s="39"/>
-      <c r="AZ63" s="39"/>
-      <c r="BA63" s="39"/>
-      <c r="BB63" s="39"/>
-      <c r="BC63" s="39"/>
-      <c r="BD63" s="39"/>
-      <c r="BE63" s="39"/>
-      <c r="BF63" s="39"/>
-      <c r="BG63" s="39"/>
-      <c r="BH63" s="39"/>
-      <c r="BI63" s="39"/>
-      <c r="BJ63" s="39"/>
-      <c r="BK63" s="39"/>
-      <c r="BL63" s="39"/>
-      <c r="BM63" s="39"/>
-      <c r="BN63" s="39"/>
-      <c r="BO63" s="39"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
+      <c r="Y63" s="35"/>
+      <c r="Z63" s="35"/>
+      <c r="AA63" s="35"/>
+      <c r="AB63" s="35"/>
+      <c r="AC63" s="35"/>
+      <c r="AD63" s="35"/>
+      <c r="AE63" s="35"/>
+      <c r="AF63" s="35"/>
+      <c r="AG63" s="35"/>
+      <c r="AH63" s="35"/>
+      <c r="AI63" s="35"/>
+      <c r="AJ63" s="35"/>
+      <c r="AK63" s="35"/>
+      <c r="AL63" s="35"/>
+      <c r="AM63" s="35"/>
+      <c r="AN63" s="35"/>
+      <c r="AO63" s="35"/>
+      <c r="AP63" s="35"/>
+      <c r="AQ63" s="35"/>
+      <c r="AR63" s="35"/>
+      <c r="AS63" s="35"/>
+      <c r="AT63" s="35"/>
+      <c r="AU63" s="35"/>
+      <c r="AV63" s="35"/>
+      <c r="AW63" s="35"/>
+      <c r="AX63" s="35"/>
+      <c r="AY63" s="35"/>
+      <c r="AZ63" s="35"/>
+      <c r="BA63" s="35"/>
+      <c r="BB63" s="35"/>
+      <c r="BC63" s="35"/>
+      <c r="BD63" s="35"/>
+      <c r="BE63" s="35"/>
+      <c r="BF63" s="35"/>
+      <c r="BG63" s="35"/>
+      <c r="BH63" s="35"/>
+      <c r="BI63" s="35"/>
+      <c r="BJ63" s="35"/>
+      <c r="BK63" s="35"/>
+      <c r="BL63" s="35"/>
+      <c r="BM63" s="35"/>
+      <c r="BN63" s="35"/>
+      <c r="BO63" s="35"/>
     </row>
     <row r="64" spans="1:67" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="48">
+      <c r="C64" s="44">
         <v>66000</v>
       </c>
     </row>
     <row r="65" spans="1:80" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="48">
+      <c r="C65" s="44">
         <v>64250</v>
       </c>
     </row>
     <row r="66" spans="1:80" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="48">
+      <c r="C66" s="44">
         <v>58400</v>
       </c>
     </row>
     <row r="67" spans="1:80" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="48">
+      <c r="C67" s="44">
         <v>56666.666666666664</v>
       </c>
     </row>
@@ -21575,36 +21666,36 @@
     </row>
     <row r="70" spans="1:80" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="49" t="s">
+      <c r="B70" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="50"/>
+      <c r="C70" s="46"/>
     </row>
     <row r="71" spans="1:80" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="51">
+      <c r="B71" s="47">
         <f>MAX(C64:C67)</f>
         <v>66000</v>
       </c>
-      <c r="C71" s="50" t="str">
+      <c r="C71" s="46" t="str">
         <f>INDEX(B63:C67,MATCH(B71,C63:C67,0),1)</f>
         <v>Asia</v>
       </c>
     </row>
     <row r="72" spans="1:80" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="52" t="s">
+      <c r="B72" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="52"/>
+      <c r="C72" s="48"/>
     </row>
     <row r="73" spans="1:80" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="53">
+      <c r="B73" s="49">
         <f>MIN(C64:C67)</f>
         <v>56666.666666666664</v>
       </c>
-      <c r="C73" s="52" t="str">
+      <c r="C73" s="48" t="str">
         <f>INDEX(B63:C67,MATCH($B$73,C63:C67,0),1)</f>
         <v>South America</v>
       </c>
@@ -21616,132 +21707,132 @@
     </row>
     <row r="75" spans="1:80" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="39" t="s">
+      <c r="B75" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="39"/>
-      <c r="N75" s="39"/>
-      <c r="O75" s="39"/>
-      <c r="P75" s="39"/>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="39"/>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
-      <c r="W75" s="39"/>
-      <c r="X75" s="39"/>
-      <c r="Y75" s="39"/>
-      <c r="Z75" s="39"/>
-      <c r="AA75" s="39"/>
-      <c r="AB75" s="39"/>
-      <c r="AC75" s="39"/>
-      <c r="AD75" s="39"/>
-      <c r="AE75" s="39"/>
-      <c r="AF75" s="39"/>
-      <c r="AG75" s="39"/>
-      <c r="AH75" s="39"/>
-      <c r="AI75" s="39"/>
-      <c r="AJ75" s="39"/>
-      <c r="AK75" s="39"/>
-      <c r="AL75" s="39"/>
-      <c r="AM75" s="39"/>
-      <c r="AN75" s="39"/>
-      <c r="AO75" s="39"/>
-      <c r="AP75" s="39"/>
-      <c r="AQ75" s="39"/>
-      <c r="AR75" s="39"/>
-      <c r="AS75" s="39"/>
-      <c r="AT75" s="39"/>
-      <c r="AU75" s="39"/>
-      <c r="AV75" s="39"/>
-      <c r="AW75" s="39"/>
-      <c r="AX75" s="39"/>
-      <c r="AY75" s="39"/>
-      <c r="AZ75" s="39"/>
-      <c r="BA75" s="39"/>
-      <c r="BB75" s="39"/>
-      <c r="BC75" s="39"/>
-      <c r="BD75" s="39"/>
-      <c r="BE75" s="39"/>
-      <c r="BF75" s="39"/>
-      <c r="BG75" s="39"/>
-      <c r="BH75" s="39"/>
-      <c r="BI75" s="39"/>
-      <c r="BJ75" s="39"/>
-      <c r="BK75" s="39"/>
-      <c r="BL75" s="39"/>
-      <c r="BM75" s="39"/>
-      <c r="BN75" s="39"/>
-      <c r="BO75" s="39"/>
-      <c r="BP75" s="39"/>
-      <c r="BQ75" s="39"/>
-      <c r="BR75" s="39"/>
-      <c r="BS75" s="39"/>
-      <c r="BT75" s="39"/>
-      <c r="BU75" s="39"/>
-      <c r="BV75" s="39"/>
-      <c r="BW75" s="39"/>
-      <c r="BX75" s="39"/>
-      <c r="BY75" s="39"/>
-      <c r="BZ75" s="39"/>
-      <c r="CA75" s="39"/>
-      <c r="CB75" s="39"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="35"/>
+      <c r="U75" s="35"/>
+      <c r="V75" s="35"/>
+      <c r="W75" s="35"/>
+      <c r="X75" s="35"/>
+      <c r="Y75" s="35"/>
+      <c r="Z75" s="35"/>
+      <c r="AA75" s="35"/>
+      <c r="AB75" s="35"/>
+      <c r="AC75" s="35"/>
+      <c r="AD75" s="35"/>
+      <c r="AE75" s="35"/>
+      <c r="AF75" s="35"/>
+      <c r="AG75" s="35"/>
+      <c r="AH75" s="35"/>
+      <c r="AI75" s="35"/>
+      <c r="AJ75" s="35"/>
+      <c r="AK75" s="35"/>
+      <c r="AL75" s="35"/>
+      <c r="AM75" s="35"/>
+      <c r="AN75" s="35"/>
+      <c r="AO75" s="35"/>
+      <c r="AP75" s="35"/>
+      <c r="AQ75" s="35"/>
+      <c r="AR75" s="35"/>
+      <c r="AS75" s="35"/>
+      <c r="AT75" s="35"/>
+      <c r="AU75" s="35"/>
+      <c r="AV75" s="35"/>
+      <c r="AW75" s="35"/>
+      <c r="AX75" s="35"/>
+      <c r="AY75" s="35"/>
+      <c r="AZ75" s="35"/>
+      <c r="BA75" s="35"/>
+      <c r="BB75" s="35"/>
+      <c r="BC75" s="35"/>
+      <c r="BD75" s="35"/>
+      <c r="BE75" s="35"/>
+      <c r="BF75" s="35"/>
+      <c r="BG75" s="35"/>
+      <c r="BH75" s="35"/>
+      <c r="BI75" s="35"/>
+      <c r="BJ75" s="35"/>
+      <c r="BK75" s="35"/>
+      <c r="BL75" s="35"/>
+      <c r="BM75" s="35"/>
+      <c r="BN75" s="35"/>
+      <c r="BO75" s="35"/>
+      <c r="BP75" s="35"/>
+      <c r="BQ75" s="35"/>
+      <c r="BR75" s="35"/>
+      <c r="BS75" s="35"/>
+      <c r="BT75" s="35"/>
+      <c r="BU75" s="35"/>
+      <c r="BV75" s="35"/>
+      <c r="BW75" s="35"/>
+      <c r="BX75" s="35"/>
+      <c r="BY75" s="35"/>
+      <c r="BZ75" s="35"/>
+      <c r="CA75" s="35"/>
+      <c r="CB75" s="35"/>
     </row>
     <row r="76" spans="1:80" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C76" s="48">
+      <c r="C76" s="44">
         <v>204000</v>
       </c>
     </row>
     <row r="77" spans="1:80" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="48">
+      <c r="C77" s="44">
         <v>147000</v>
       </c>
     </row>
     <row r="78" spans="1:80" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="40" t="s">
+      <c r="B78" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="48">
+      <c r="C78" s="44">
         <v>225000</v>
       </c>
     </row>
     <row r="79" spans="1:80" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="48">
+      <c r="C79" s="44">
         <v>181000</v>
       </c>
     </row>
     <row r="80" spans="1:80" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="48">
+      <c r="C80" s="44">
         <v>160000</v>
       </c>
     </row>
@@ -21751,134 +21842,134 @@
       </c>
     </row>
     <row r="82" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="C82" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="39"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="39"/>
-      <c r="O82" s="39"/>
-      <c r="P82" s="39"/>
-      <c r="Q82" s="39"/>
-      <c r="R82" s="39"/>
-      <c r="S82" s="39"/>
-      <c r="T82" s="39"/>
-      <c r="U82" s="39"/>
-      <c r="V82" s="39"/>
-      <c r="W82" s="39"/>
-      <c r="X82" s="39"/>
-      <c r="Y82" s="39"/>
-      <c r="Z82" s="39"/>
-      <c r="AA82" s="39"/>
-      <c r="AB82" s="39"/>
-      <c r="AC82" s="39"/>
-      <c r="AD82" s="39"/>
-      <c r="AE82" s="39"/>
-      <c r="AF82" s="39"/>
-      <c r="AG82" s="39"/>
-      <c r="AH82" s="39"/>
-      <c r="AI82" s="39"/>
-      <c r="AJ82" s="39"/>
-      <c r="AK82" s="39"/>
-      <c r="AL82" s="39"/>
-      <c r="AM82" s="39"/>
-      <c r="AN82" s="39"/>
-      <c r="AO82" s="39"/>
-      <c r="AP82" s="39"/>
-      <c r="AQ82" s="39"/>
-      <c r="AR82" s="39"/>
-      <c r="AS82" s="39"/>
-      <c r="AT82" s="39"/>
-      <c r="AU82" s="39"/>
-      <c r="AV82" s="39"/>
-      <c r="AW82" s="39"/>
-      <c r="AX82" s="39"/>
-      <c r="AY82" s="39"/>
-      <c r="AZ82" s="39"/>
-      <c r="BA82" s="39"/>
-      <c r="BB82" s="39"/>
-      <c r="BC82" s="39"/>
-      <c r="BD82" s="39"/>
-      <c r="BE82" s="39"/>
-      <c r="BF82" s="39"/>
-      <c r="BG82" s="39"/>
-      <c r="BH82" s="39"/>
-      <c r="BI82" s="39"/>
-      <c r="BJ82" s="39"/>
-      <c r="BK82" s="39"/>
-      <c r="BL82" s="39"/>
-      <c r="BM82" s="39"/>
-      <c r="BN82" s="39"/>
-      <c r="BO82" s="39"/>
-      <c r="BP82" s="39"/>
-      <c r="BQ82" s="39"/>
-      <c r="BR82" s="39"/>
-      <c r="BS82" s="39"/>
-      <c r="BT82" s="39"/>
-      <c r="BU82" s="39"/>
-      <c r="BV82" s="39"/>
-      <c r="BW82" s="39"/>
-      <c r="BX82" s="39"/>
-      <c r="BY82" s="39"/>
-      <c r="BZ82" s="39"/>
-      <c r="CA82" s="39"/>
-      <c r="CB82" s="39"/>
-      <c r="CC82" s="39"/>
-      <c r="CD82" s="39"/>
-      <c r="CE82" s="39"/>
-      <c r="CF82" s="39"/>
-      <c r="CG82" s="39"/>
-      <c r="CH82" s="39"/>
-      <c r="CI82" s="39"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35"/>
+      <c r="V82" s="35"/>
+      <c r="W82" s="35"/>
+      <c r="X82" s="35"/>
+      <c r="Y82" s="35"/>
+      <c r="Z82" s="35"/>
+      <c r="AA82" s="35"/>
+      <c r="AB82" s="35"/>
+      <c r="AC82" s="35"/>
+      <c r="AD82" s="35"/>
+      <c r="AE82" s="35"/>
+      <c r="AF82" s="35"/>
+      <c r="AG82" s="35"/>
+      <c r="AH82" s="35"/>
+      <c r="AI82" s="35"/>
+      <c r="AJ82" s="35"/>
+      <c r="AK82" s="35"/>
+      <c r="AL82" s="35"/>
+      <c r="AM82" s="35"/>
+      <c r="AN82" s="35"/>
+      <c r="AO82" s="35"/>
+      <c r="AP82" s="35"/>
+      <c r="AQ82" s="35"/>
+      <c r="AR82" s="35"/>
+      <c r="AS82" s="35"/>
+      <c r="AT82" s="35"/>
+      <c r="AU82" s="35"/>
+      <c r="AV82" s="35"/>
+      <c r="AW82" s="35"/>
+      <c r="AX82" s="35"/>
+      <c r="AY82" s="35"/>
+      <c r="AZ82" s="35"/>
+      <c r="BA82" s="35"/>
+      <c r="BB82" s="35"/>
+      <c r="BC82" s="35"/>
+      <c r="BD82" s="35"/>
+      <c r="BE82" s="35"/>
+      <c r="BF82" s="35"/>
+      <c r="BG82" s="35"/>
+      <c r="BH82" s="35"/>
+      <c r="BI82" s="35"/>
+      <c r="BJ82" s="35"/>
+      <c r="BK82" s="35"/>
+      <c r="BL82" s="35"/>
+      <c r="BM82" s="35"/>
+      <c r="BN82" s="35"/>
+      <c r="BO82" s="35"/>
+      <c r="BP82" s="35"/>
+      <c r="BQ82" s="35"/>
+      <c r="BR82" s="35"/>
+      <c r="BS82" s="35"/>
+      <c r="BT82" s="35"/>
+      <c r="BU82" s="35"/>
+      <c r="BV82" s="35"/>
+      <c r="BW82" s="35"/>
+      <c r="BX82" s="35"/>
+      <c r="BY82" s="35"/>
+      <c r="BZ82" s="35"/>
+      <c r="CA82" s="35"/>
+      <c r="CB82" s="35"/>
+      <c r="CC82" s="35"/>
+      <c r="CD82" s="35"/>
+      <c r="CE82" s="35"/>
+      <c r="CF82" s="35"/>
+      <c r="CG82" s="35"/>
+      <c r="CH82" s="35"/>
+      <c r="CI82" s="35"/>
     </row>
     <row r="83" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="B83" s="40" t="s">
+      <c r="B83" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="41">
+      <c r="C83" s="37">
         <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="B84" s="40" t="s">
+      <c r="B84" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C84" s="41">
+      <c r="C84" s="37">
         <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C85" s="41">
+      <c r="C85" s="37">
         <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="B86" s="40" t="s">
+      <c r="B86" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="41">
+      <c r="C86" s="37">
         <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="B87" s="40" t="s">
+      <c r="B87" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="41">
+      <c r="C87" s="37">
         <v>109</v>
       </c>
     </row>
